--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Vtn-Itgb3.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Vtn-Itgb3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -88,7 +91,7 @@
     <t>Itgb3</t>
   </si>
   <si>
-    <t>ECs</t>
+    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>20.2714564088182</v>
+        <v>6.597131</v>
       </c>
       <c r="H2">
-        <v>20.2714564088182</v>
+        <v>19.791393</v>
       </c>
       <c r="I2">
-        <v>0.495507175122799</v>
+        <v>0.1209543635982448</v>
       </c>
       <c r="J2">
-        <v>0.495507175122799</v>
+        <v>0.1209543635982448</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.45170379307354</v>
+        <v>2.481489333333333</v>
       </c>
       <c r="N2">
-        <v>1.45170379307354</v>
+        <v>7.444467999999999</v>
       </c>
       <c r="O2">
-        <v>0.156091865888787</v>
+        <v>0.2345069082418988</v>
       </c>
       <c r="P2">
-        <v>0.156091865888787</v>
+        <v>0.2345069082418987</v>
       </c>
       <c r="Q2">
-        <v>29.4281501598063</v>
+        <v>16.37071020710266</v>
       </c>
       <c r="R2">
-        <v>29.4281501598063</v>
+        <v>147.336391863924</v>
       </c>
       <c r="S2">
-        <v>0.07734463952619965</v>
+        <v>0.02836463384579085</v>
       </c>
       <c r="T2">
-        <v>0.07734463952619965</v>
+        <v>0.02836463384579084</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>20.2714564088182</v>
+        <v>6.597131</v>
       </c>
       <c r="H3">
-        <v>20.2714564088182</v>
+        <v>19.791393</v>
       </c>
       <c r="I3">
-        <v>0.495507175122799</v>
+        <v>0.1209543635982448</v>
       </c>
       <c r="J3">
-        <v>0.495507175122799</v>
+        <v>0.1209543635982448</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.20742042878663</v>
+        <v>7.245227</v>
       </c>
       <c r="N3">
-        <v>7.20742042878663</v>
+        <v>21.735681</v>
       </c>
       <c r="O3">
-        <v>0.7749650502685403</v>
+        <v>0.6846919551326144</v>
       </c>
       <c r="P3">
-        <v>0.7749650502685403</v>
+        <v>0.6846919551326142</v>
       </c>
       <c r="Q3">
-        <v>146.1049090421739</v>
+        <v>47.797711643737</v>
       </c>
       <c r="R3">
-        <v>146.1049090421739</v>
+        <v>430.179404793633</v>
       </c>
       <c r="S3">
-        <v>0.3840007428774623</v>
+        <v>0.08281647969390334</v>
       </c>
       <c r="T3">
-        <v>0.3840007428774623</v>
+        <v>0.08281647969390331</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,123 +646,123 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>20.2714564088182</v>
+        <v>6.597131</v>
       </c>
       <c r="H4">
-        <v>20.2714564088182</v>
+        <v>19.791393</v>
       </c>
       <c r="I4">
-        <v>0.495507175122799</v>
+        <v>0.1209543635982448</v>
       </c>
       <c r="J4">
-        <v>0.495507175122799</v>
+        <v>0.1209543635982448</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.641192516667742</v>
+        <v>0.2001876666666667</v>
       </c>
       <c r="N4">
-        <v>0.641192516667742</v>
+        <v>0.600563</v>
       </c>
       <c r="O4">
-        <v>0.0689430838426727</v>
+        <v>0.01891823194544989</v>
       </c>
       <c r="P4">
-        <v>0.0689430838426727</v>
+        <v>0.01891823194544989</v>
       </c>
       <c r="Q4">
-        <v>12.99790615129057</v>
+        <v>1.320664261584333</v>
       </c>
       <c r="R4">
-        <v>12.99790615129057</v>
+        <v>11.885978354259</v>
       </c>
       <c r="S4">
-        <v>0.03416179271913703</v>
+        <v>0.002288242705365876</v>
       </c>
       <c r="T4">
-        <v>0.03416179271913703</v>
+        <v>0.002288242705365875</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>20.6390640166316</v>
+        <v>6.597131</v>
       </c>
       <c r="H5">
-        <v>20.6390640166316</v>
+        <v>19.791393</v>
       </c>
       <c r="I5">
-        <v>0.5044928248772009</v>
+        <v>0.1209543635982448</v>
       </c>
       <c r="J5">
-        <v>0.5044928248772009</v>
+        <v>0.1209543635982448</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.45170379307354</v>
+        <v>0.6548283333333333</v>
       </c>
       <c r="N5">
-        <v>1.45170379307354</v>
+        <v>1.964485</v>
       </c>
       <c r="O5">
-        <v>0.156091865888787</v>
+        <v>0.06188290468003712</v>
       </c>
       <c r="P5">
-        <v>0.156091865888787</v>
+        <v>0.06188290468003711</v>
       </c>
       <c r="Q5">
-        <v>29.9618075184317</v>
+        <v>4.319988297511667</v>
       </c>
       <c r="R5">
-        <v>29.9618075184317</v>
+        <v>38.879894677605</v>
       </c>
       <c r="S5">
-        <v>0.07874722636258738</v>
+        <v>0.007485007353184732</v>
       </c>
       <c r="T5">
-        <v>0.07874722636258738</v>
+        <v>0.007485007353184731</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>20.6390640166316</v>
+        <v>21.05317333333333</v>
       </c>
       <c r="H6">
-        <v>20.6390640166316</v>
+        <v>63.15952</v>
       </c>
       <c r="I6">
-        <v>0.5044928248772009</v>
+        <v>0.3859970617919927</v>
       </c>
       <c r="J6">
-        <v>0.5044928248772009</v>
+        <v>0.3859970617919927</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.20742042878663</v>
+        <v>2.481489333333333</v>
       </c>
       <c r="N6">
-        <v>7.20742042878663</v>
+        <v>7.444467999999999</v>
       </c>
       <c r="O6">
-        <v>0.7749650502685403</v>
+        <v>0.2345069082418988</v>
       </c>
       <c r="P6">
-        <v>0.7749650502685403</v>
+        <v>0.2345069082418987</v>
       </c>
       <c r="Q6">
-        <v>148.7544116245057</v>
+        <v>52.24322505948443</v>
       </c>
       <c r="R6">
-        <v>148.7544116245057</v>
+        <v>470.1890255353599</v>
       </c>
       <c r="S6">
-        <v>0.390964307391078</v>
+        <v>0.09051897755129737</v>
       </c>
       <c r="T6">
-        <v>0.390964307391078</v>
+        <v>0.09051897755129734</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +832,433 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>20.6390640166316</v>
+        <v>21.05317333333333</v>
       </c>
       <c r="H7">
-        <v>20.6390640166316</v>
+        <v>63.15952</v>
       </c>
       <c r="I7">
-        <v>0.5044928248772009</v>
+        <v>0.3859970617919927</v>
       </c>
       <c r="J7">
-        <v>0.5044928248772009</v>
+        <v>0.3859970617919927</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.641192516667742</v>
+        <v>7.245227</v>
       </c>
       <c r="N7">
-        <v>0.641192516667742</v>
+        <v>21.735681</v>
       </c>
       <c r="O7">
-        <v>0.0689430838426727</v>
+        <v>0.6846919551326144</v>
       </c>
       <c r="P7">
-        <v>0.0689430838426727</v>
+        <v>0.6846919551326142</v>
       </c>
       <c r="Q7">
-        <v>13.23361339849065</v>
+        <v>152.5350198703467</v>
       </c>
       <c r="R7">
-        <v>13.23361339849065</v>
+        <v>1372.81517883312</v>
       </c>
       <c r="S7">
-        <v>0.03478129112353566</v>
+        <v>0.264289082913804</v>
       </c>
       <c r="T7">
-        <v>0.03478129112353566</v>
+        <v>0.264289082913804</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>21.05317333333333</v>
+      </c>
+      <c r="H8">
+        <v>63.15952</v>
+      </c>
+      <c r="I8">
+        <v>0.3859970617919927</v>
+      </c>
+      <c r="J8">
+        <v>0.3859970617919927</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.2001876666666667</v>
+      </c>
+      <c r="N8">
+        <v>0.600563</v>
+      </c>
+      <c r="O8">
+        <v>0.01891823194544989</v>
+      </c>
+      <c r="P8">
+        <v>0.01891823194544989</v>
+      </c>
+      <c r="Q8">
+        <v>4.214585645528889</v>
+      </c>
+      <c r="R8">
+        <v>37.93127080976</v>
+      </c>
+      <c r="S8">
+        <v>0.007302381945243073</v>
+      </c>
+      <c r="T8">
+        <v>0.007302381945243071</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>21.05317333333333</v>
+      </c>
+      <c r="H9">
+        <v>63.15952</v>
+      </c>
+      <c r="I9">
+        <v>0.3859970617919927</v>
+      </c>
+      <c r="J9">
+        <v>0.3859970617919927</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.6548283333333333</v>
+      </c>
+      <c r="N9">
+        <v>1.964485</v>
+      </c>
+      <c r="O9">
+        <v>0.06188290468003712</v>
+      </c>
+      <c r="P9">
+        <v>0.06188290468003711</v>
+      </c>
+      <c r="Q9">
+        <v>13.78621440524445</v>
+      </c>
+      <c r="R9">
+        <v>124.0759296472</v>
+      </c>
+      <c r="S9">
+        <v>0.02388661938164828</v>
+      </c>
+      <c r="T9">
+        <v>0.02388661938164828</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>26.89201066666667</v>
+      </c>
+      <c r="H10">
+        <v>80.67603200000001</v>
+      </c>
+      <c r="I10">
+        <v>0.4930485746097625</v>
+      </c>
+      <c r="J10">
+        <v>0.4930485746097625</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>2.481489333333333</v>
+      </c>
+      <c r="N10">
+        <v>7.444467999999999</v>
+      </c>
+      <c r="O10">
+        <v>0.2345069082418988</v>
+      </c>
+      <c r="P10">
+        <v>0.2345069082418987</v>
+      </c>
+      <c r="Q10">
+        <v>66.73223762121954</v>
+      </c>
+      <c r="R10">
+        <v>600.5901385909759</v>
+      </c>
+      <c r="S10">
+        <v>0.1156232968448105</v>
+      </c>
+      <c r="T10">
+        <v>0.1156232968448105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>26.89201066666667</v>
+      </c>
+      <c r="H11">
+        <v>80.67603200000001</v>
+      </c>
+      <c r="I11">
+        <v>0.4930485746097625</v>
+      </c>
+      <c r="J11">
+        <v>0.4930485746097625</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>7.245227</v>
+      </c>
+      <c r="N11">
+        <v>21.735681</v>
+      </c>
+      <c r="O11">
+        <v>0.6846919551326144</v>
+      </c>
+      <c r="P11">
+        <v>0.6846919551326142</v>
+      </c>
+      <c r="Q11">
+        <v>194.8387217664213</v>
+      </c>
+      <c r="R11">
+        <v>1753.548495897792</v>
+      </c>
+      <c r="S11">
+        <v>0.337586392524907</v>
+      </c>
+      <c r="T11">
+        <v>0.3375863925249069</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>26.89201066666667</v>
+      </c>
+      <c r="H12">
+        <v>80.67603200000001</v>
+      </c>
+      <c r="I12">
+        <v>0.4930485746097625</v>
+      </c>
+      <c r="J12">
+        <v>0.4930485746097625</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.2001876666666667</v>
+      </c>
+      <c r="N12">
+        <v>0.600563</v>
+      </c>
+      <c r="O12">
+        <v>0.01891823194544989</v>
+      </c>
+      <c r="P12">
+        <v>0.01891823194544989</v>
+      </c>
+      <c r="Q12">
+        <v>5.383448867335111</v>
+      </c>
+      <c r="R12">
+        <v>48.451039806016</v>
+      </c>
+      <c r="S12">
+        <v>0.009327607294840943</v>
+      </c>
+      <c r="T12">
+        <v>0.009327607294840942</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>26.89201066666667</v>
+      </c>
+      <c r="H13">
+        <v>80.67603200000001</v>
+      </c>
+      <c r="I13">
+        <v>0.4930485746097625</v>
+      </c>
+      <c r="J13">
+        <v>0.4930485746097625</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.6548283333333333</v>
+      </c>
+      <c r="N13">
+        <v>1.964485</v>
+      </c>
+      <c r="O13">
+        <v>0.06188290468003712</v>
+      </c>
+      <c r="P13">
+        <v>0.06188290468003711</v>
+      </c>
+      <c r="Q13">
+        <v>17.60965052483555</v>
+      </c>
+      <c r="R13">
+        <v>158.48685472352</v>
+      </c>
+      <c r="S13">
+        <v>0.0305112779452041</v>
+      </c>
+      <c r="T13">
+        <v>0.0305112779452041</v>
       </c>
     </row>
   </sheetData>
